--- a/scripts Stata/Atual/Diff Media/resultados.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608CDCF-BF38-4B22-A1A5-D553A8663812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318122B-209B-4766-B52D-4936F7569CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{07FC681E-C5D1-4D85-9823-A96534B87B64}"/>
+    <workbookView xWindow="29265" yWindow="930" windowWidth="23040" windowHeight="9915" xr2:uid="{07FC681E-C5D1-4D85-9823-A96534B87B64}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>t(df)</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Pr(T &gt; t) = 0.8791</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -140,15 +137,28 @@
   </si>
   <si>
     <t>Tabela 3: Negociação na Bolsa de Valores (ADR) e índice de legibilidade da nota explicativa</t>
+  </si>
+  <si>
+    <t>Média e Desv.P RegNreg = Não</t>
+  </si>
+  <si>
+    <t>Média e Desv.P RegNreg = Sim</t>
+  </si>
+  <si>
+    <t>Média e Desv.P ADR = Não</t>
+  </si>
+  <si>
+    <t>Média e Desv.P ADR = Sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,7 +186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -266,21 +282,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -312,7 +319,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1155,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BB6E4A43-6140-434A-A6BC-6F4AD8D7A14C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1136,9 +1164,155 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962026</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7600950" cy="2331279"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DAA9E4-4B79-4615-8FA0-9D53D340EF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362701" y="3857625"/>
+          <a:ext cx="7600950" cy="2331279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>O resultado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> para esse teste bilateral pode ser visto na tabela acima como valor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>da estatística t = -1,277  e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
+            <a:t>p-value 0,242.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> De acordo com esse teste, rejeita se a hipótese nula de igualdade de médias do índice de legibilidade na nota</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> explicativa com relação as empresas que possuem Governança Corporativa.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Verificamos que temos 40 observações na amostra. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Os valores médios</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> GC=SIm e GC=NAO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>são apresentados nos anos analisados bem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> como </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>os valores dos erros padrões e desvios padrões assim como os intervalos de confiança para estas estimativas.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Além disto, a tabela mostra o valor da média dos dados combinados (GC=sim e GC=Não juntos). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Temos a diferença entre as médias amostrais . Verificamos que o seu intervalo de confiança de 95 %.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9645316" cy="5955632"/>
+    <xdr:ext cx="9658945" cy="5968008"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -1466,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86DB39-7FDA-4372-AC2B-5C034FA32565}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:O18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,25 +1660,25 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1555,7 +1729,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -1578,7 +1752,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12">
@@ -1597,189 +1771,189 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="I10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="L10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="23">
+      <c r="K11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="20">
         <v>-1.2777160000000001</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>25</v>
+      <c r="M11" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="N11" s="27">
         <v>0.24179999999999999</v>
       </c>
-      <c r="O11" s="20" t="s">
-        <v>28</v>
+      <c r="O11" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="27">
         <v>0.43240000000000001</v>
       </c>
-      <c r="O12" s="22"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="27">
         <v>0.69920000000000004</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="25"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="27">
+        <v>0.9899</v>
+      </c>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="25"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="28">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="27">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="27">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>2017</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="27">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1787,6 +1961,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1794,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E676FA64-946F-4888-AD07-BF36A2767013}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,25 +1990,25 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1884,7 +2059,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -1907,7 +2082,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12">
@@ -1926,163 +2101,179 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="I10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="29">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="29">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="30">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="29">
+        <v>0.1583</v>
+      </c>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="31">
+        <v>5.33E-2</v>
+      </c>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="29">
+        <v>0.1384</v>
+      </c>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>2017</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="29">
+        <v>0.1545</v>
+      </c>
+      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2097,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720447-F856-4543-8AC0-197FB204DD36}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:O18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,25 +2309,25 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2187,7 +2378,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -2210,7 +2401,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12">
@@ -2229,163 +2420,179 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="I10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="I9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="29">
+        <v>0.3987</v>
+      </c>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="29">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="29">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="29">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="31">
+        <v>5.33E-2</v>
+      </c>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="29">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="29">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>2017</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="29">
+        <v>0.5161</v>
+      </c>
+      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2400,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0CB52A-0BAA-4FD9-BE4F-0207EF398871}">
   <dimension ref="D2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/scripts Stata/Atual/Diff Media/resultados.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318122B-209B-4766-B52D-4936F7569CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC513078-B6E8-47E9-A75F-44A5FF3B81AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29265" yWindow="930" windowWidth="23040" windowHeight="9915" xr2:uid="{07FC681E-C5D1-4D85-9823-A96534B87B64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{07FC681E-C5D1-4D85-9823-A96534B87B64}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>t(df)</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>27,08 (0,83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-3,45, 0,89) </t>
   </si>
   <si>
     <t>ANO</t>
@@ -158,7 +155,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -297,9 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,6 +313,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,19 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1167,9 +1164,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>962026</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>895351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7600950" cy="2331279"/>
     <xdr:sp macro="" textlink="">
@@ -1185,7 +1182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362701" y="3857625"/>
+          <a:off x="6296026" y="4762500"/>
           <a:ext cx="7600950" cy="2331279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1638,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86DB39-7FDA-4372-AC2B-5C034FA32565}">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,10 +1652,9 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>28.83456</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>29.801870000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1746,7 @@
         <v>28.8459</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>0.89743479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1780,7 +1776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1790,25 +1786,24 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>23</v>
@@ -1819,11 +1814,8 @@
       <c r="N10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1833,29 +1825,26 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2010</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>-1.2777160000000001</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="23">
         <v>0.24179999999999999</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1865,99 +1854,92 @@
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>2011</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="27">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="23">
         <v>0.43240000000000001</v>
       </c>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="17">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="16">
         <v>2012</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="27">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23">
         <v>0.69920000000000004</v>
       </c>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="17">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="16">
         <v>2013</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="27">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23">
         <v>0.9899</v>
       </c>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="17">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="16">
         <v>2014</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="28">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="24">
         <v>0.55179999999999996</v>
       </c>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="17">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="16">
         <v>2015</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="27">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23">
         <v>0.69799999999999995</v>
       </c>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="17">
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="16">
         <v>2016</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="27">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23">
         <v>0.15290000000000001</v>
       </c>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="17">
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="16">
         <v>2017</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="27">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="23">
         <v>0.99309999999999998</v>
       </c>
-      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1969,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E676FA64-946F-4888-AD07-BF36A2767013}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,36 +2102,36 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
+      <c r="I9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2163,17 +2145,17 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2010</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="29">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="25">
         <v>0.32650000000000001</v>
       </c>
-      <c r="O11" s="17"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2185,95 +2167,95 @@
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>2011</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="29">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="25">
         <v>0.34560000000000002</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>2012</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="30">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="26">
         <v>0.10630000000000001</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>2013</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="29">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="25">
         <v>0.1583</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="17">
+      <c r="I15" s="31">
         <v>2014</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="31">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="27">
         <v>5.33E-2</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="17">
+      <c r="I16" s="31">
         <v>2015</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="31">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="27">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>2016</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="29">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="25">
         <v>0.1384</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>2017</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="29">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="25">
         <v>0.1545</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2288,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720447-F856-4543-8AC0-197FB204DD36}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:O9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,36 +2421,36 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
+      <c r="I9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2482,17 +2464,17 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2010</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="29">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="25">
         <v>0.3987</v>
       </c>
-      <c r="O11" s="17"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2504,95 +2486,95 @@
       <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>2011</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="29">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="25">
         <v>0.79359999999999997</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>2012</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="29">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="25">
         <v>0.22270000000000001</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>2013</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="29">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="25">
         <v>0.43780000000000002</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>2014</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="31">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="27">
         <v>5.33E-2</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>2015</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="29">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="25">
         <v>0.12570000000000001</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>2016</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="29">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="25">
         <v>0.17369999999999999</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>2017</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="29">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="25">
         <v>0.5161</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scripts Stata/Atual/Diff Media/resultados.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Rio Verde\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC513078-B6E8-47E9-A75F-44A5FF3B81AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{07FC681E-C5D1-4D85-9823-A96534B87B64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Gráfico1" sheetId="7" r:id="rId4"/>
     <sheet name="Planilha6" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,9 +120,6 @@
     <t>ANO</t>
   </si>
   <si>
-    <t>Tabela 1:  Relação de Governança (GC) e índice de legibilidade da nota explicativa</t>
-  </si>
-  <si>
     <t>Média e Desv.P GC = Não</t>
   </si>
   <si>
@@ -146,12 +142,15 @@
   </si>
   <si>
     <t>Média e Desv.P ADR = Sim</t>
+  </si>
+  <si>
+    <t>Tabela 1:  Relação de Governança (GC) e índice de legibilidade da nota explicativa (LegNE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -316,9 +315,6 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +322,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -358,7 +357,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -433,7 +432,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C0FB-4916-A00B-A9DDC7067BC4}"/>
             </c:ext>
@@ -449,11 +448,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="323642671"/>
-        <c:axId val="313994655"/>
+        <c:axId val="-1533260672"/>
+        <c:axId val="-1533262304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323642671"/>
+        <c:axId val="-1533260672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +494,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313994655"/>
+        <c:crossAx val="-1533262304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313994655"/>
+        <c:axId val="-1533262304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +553,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323642671"/>
+        <c:crossAx val="-1533260672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -568,14 +567,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1149,7 +1148,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BB6E4A43-6140-434A-A6BC-6F4AD8D7A14C}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
@@ -1163,18 +1162,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>895351</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7600950" cy="2331279"/>
+    <xdr:ext cx="7600950" cy="2503506"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DAA9E4-4B79-4615-8FA0-9D53D340EF9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54DAA9E4-4B79-4615-8FA0-9D53D340EF9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,8 +1181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296026" y="4762500"/>
-          <a:ext cx="7600950" cy="2331279"/>
+          <a:off x="2543176" y="4057650"/>
+          <a:ext cx="7600950" cy="2503506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,11 +1220,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> para esse teste bilateral pode ser visto na tabela acima como valor </a:t>
+            <a:t> para esse teste bilateral pode ser visto na tabela acima. O valor encontrado para a</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>da estatística t = -1,277  e</a:t>
+            <a:t> estatística t = -1,277  e</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
@@ -1233,17 +1232,27 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
-            <a:t>p-value 0,242.</a:t>
+            <a:t>p-value 0,242</a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" baseline="0"/>
+            <a:t>, tais resultados permitem que se </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t> De acordo com esse teste, rejeita se a hipótese nula de igualdade de médias do índice de legibilidade na nota</a:t>
+            <a:t>rejeita a hipótese nula de igualdade de médias para</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> explicativa com relação as empresas que possuem Governança Corporativa.</a:t>
+            <a:t> o</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t> índice de legibilidade na nota</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> explicativa ( LegNe)  com relação as empresas que possuem ou não Governança Corporativa. Ou seja, não existe diferença significativa entre os grupos para o ano analisado.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1315,7 +1324,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2A2E8-F86D-4605-A48B-33748336BACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBC2A2E8-F86D-4605-A48B-33748336BACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,11 +1643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86DB39-7FDA-4372-AC2B-5C034FA32565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1661,7 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1786,24 +1796,24 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="I9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="I10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>23</v>
@@ -1897,7 +1907,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="24">
+      <c r="N15" s="23">
         <v>0.55179999999999996</v>
       </c>
     </row>
@@ -1948,10 +1958,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E676FA64-946F-4888-AD07-BF36A2767013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N15" sqref="N15:N16"/>
     </sheetView>
   </sheetViews>
@@ -2103,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -2117,10 +2127,10 @@
         <v>27</v>
       </c>
       <c r="J10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>23</v>
@@ -2152,7 +2162,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>0.32650000000000001</v>
       </c>
       <c r="O11" s="16"/>
@@ -2174,7 +2184,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="25">
+      <c r="N12" s="24">
         <v>0.34560000000000002</v>
       </c>
       <c r="O12" s="18"/>
@@ -2187,7 +2197,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <v>0.10630000000000001</v>
       </c>
       <c r="O13" s="21"/>
@@ -2200,33 +2210,33 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="25">
+      <c r="N14" s="24">
         <v>0.1583</v>
       </c>
       <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="31">
+      <c r="I15" s="27">
         <v>2014</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <v>5.33E-2</v>
       </c>
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <v>2015</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O16" s="21"/>
@@ -2239,7 +2249,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>0.1384</v>
       </c>
       <c r="O17" s="21"/>
@@ -2252,7 +2262,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="25">
+      <c r="N18" s="24">
         <v>0.1545</v>
       </c>
       <c r="O18" s="21"/>
@@ -2267,10 +2277,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0720447-F856-4543-8AC0-197FB204DD36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M22" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
@@ -2422,7 +2432,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -2436,10 +2446,10 @@
         <v>27</v>
       </c>
       <c r="J10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>23</v>
@@ -2471,7 +2481,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>0.3987</v>
       </c>
       <c r="O11" s="16"/>
@@ -2493,7 +2503,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="25">
+      <c r="N12" s="24">
         <v>0.79359999999999997</v>
       </c>
       <c r="O12" s="18"/>
@@ -2506,7 +2516,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="25">
+      <c r="N13" s="24">
         <v>0.22270000000000001</v>
       </c>
       <c r="O13" s="21"/>
@@ -2519,7 +2529,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="25">
+      <c r="N14" s="24">
         <v>0.43780000000000002</v>
       </c>
       <c r="O14" s="21"/>
@@ -2532,7 +2542,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <v>5.33E-2</v>
       </c>
       <c r="O15" s="21"/>
@@ -2545,7 +2555,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="25">
+      <c r="N16" s="24">
         <v>0.12570000000000001</v>
       </c>
       <c r="O16" s="21"/>
@@ -2558,7 +2568,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>0.17369999999999999</v>
       </c>
       <c r="O17" s="21"/>
@@ -2571,7 +2581,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="25">
+      <c r="N18" s="24">
         <v>0.5161</v>
       </c>
       <c r="O18" s="21"/>
@@ -2586,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0CB52A-0BAA-4FD9-BE4F-0207EF398871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/scripts Stata/Atual/Diff Media/resultados.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Rio Verde\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B2AE4-1FDA-4219-9EC6-7CD156A208D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Gráfico1" sheetId="7" r:id="rId4"/>
     <sheet name="Planilha6" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>t(df)</t>
   </si>
   <si>
-    <t>p value</t>
-  </si>
-  <si>
-    <t>95% C.I</t>
-  </si>
-  <si>
     <t>Ha: diff &gt; 0</t>
   </si>
   <si>
@@ -105,9 +100,6 @@
     <t>t =  -1,1892</t>
   </si>
   <si>
-    <t>Média da diferença</t>
-  </si>
-  <si>
     <t xml:space="preserve">-1,1892 (38) </t>
   </si>
   <si>
@@ -117,46 +109,253 @@
     <t>27,08 (0,83)</t>
   </si>
   <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>Média e Desv.P GC = Não</t>
-  </si>
-  <si>
-    <t>Média e Desv.P GC = Sim</t>
-  </si>
-  <si>
     <t>Tabela 2: Setor Regulamenta e Não Regulamentado (RegNreg) e índice de legibilidade da nota explicativa</t>
   </si>
   <si>
     <t>Tabela 3: Negociação na Bolsa de Valores (ADR) e índice de legibilidade da nota explicativa</t>
   </si>
   <si>
-    <t>Média e Desv.P RegNreg = Não</t>
-  </si>
-  <si>
-    <t>Média e Desv.P RegNreg = Sim</t>
-  </si>
-  <si>
-    <t>Média e Desv.P ADR = Não</t>
-  </si>
-  <si>
-    <t>Média e Desv.P ADR = Sim</t>
-  </si>
-  <si>
     <t>Tabela 1:  Relação de Governança (GC) e índice de legibilidade da nota explicativa (LegNE)</t>
+  </si>
+  <si>
+    <t>28,97 (0,74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,08 (0,85) </t>
+  </si>
+  <si>
+    <t>-0,7935 (38)</t>
+  </si>
+  <si>
+    <t>29,80(0,72)</t>
+  </si>
+  <si>
+    <t>28,89 (0,98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28,33 (0,99)</t>
+  </si>
+  <si>
+    <t>28,67 (1.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29,16 (1,07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28,36 (0,68)</t>
+  </si>
+  <si>
+    <t>29,81 (0,92)</t>
+  </si>
+  <si>
+    <t>0,0088(38)</t>
+  </si>
+  <si>
+    <t>-0,3893 (38)</t>
+  </si>
+  <si>
+    <t>0,0128 (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,6005(38)</t>
+  </si>
+  <si>
+    <t>0,3909(38)</t>
+  </si>
+  <si>
+    <t>-1,4587(38)</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>28,82(0,80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28,65 (0.87)</t>
+  </si>
+  <si>
+    <t>28,35 (0,84)</t>
+  </si>
+  <si>
+    <t>28,37 (0,87)</t>
+  </si>
+  <si>
+    <t>30,20 (1,02)</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>x e σ  GC = Não</t>
+  </si>
+  <si>
+    <t>x e σ  GC =Sim</t>
+  </si>
+  <si>
+    <t>x da diferença</t>
+  </si>
+  <si>
+    <t>x e σ  RegNreg = Não</t>
+  </si>
+  <si>
+    <t>x e σ  RegNreg =Sim</t>
+  </si>
+  <si>
+    <t>28,10 (0,63)</t>
+  </si>
+  <si>
+    <t>26,93 (1,01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,9940 (38) </t>
+  </si>
+  <si>
+    <t>28,90 (0,59)</t>
+  </si>
+  <si>
+    <t>27,73 (1,26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,9551 (38) </t>
+  </si>
+  <si>
+    <t>29,25 (0,61)</t>
+  </si>
+  <si>
+    <t>27,04 (1,46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,6545 (38) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4390 (38) </t>
+  </si>
+  <si>
+    <t>27,21 (1,35)</t>
+  </si>
+  <si>
+    <t>29,29 (0,74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9946 (38) </t>
+  </si>
+  <si>
+    <t>26,76 (1,37)</t>
+  </si>
+  <si>
+    <t>29,55 (0,70)</t>
+  </si>
+  <si>
+    <t>29,43 (0,74)</t>
+  </si>
+  <si>
+    <t>26,68 (1,15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,0151 (38) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5137 (38) </t>
+  </si>
+  <si>
+    <t>27,88 (1,28)</t>
+  </si>
+  <si>
+    <t>29,95 (0,70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4526 (38) </t>
+  </si>
+  <si>
+    <t>28,57 (1,14)</t>
+  </si>
+  <si>
+    <t>30,35 (0,62)</t>
+  </si>
+  <si>
+    <t>x e σ  ADR = Não</t>
+  </si>
+  <si>
+    <t>x e σ  ADR =Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8536 (38) </t>
+  </si>
+  <si>
+    <t>27,15 (0,87)</t>
+  </si>
+  <si>
+    <t>28,11 (0,68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2635 (38) </t>
+  </si>
+  <si>
+    <t>28,36 (0,96)</t>
+  </si>
+  <si>
+    <t>28,67 (0,69)</t>
+  </si>
+  <si>
+    <t>29,18 (0,77)</t>
+  </si>
+  <si>
+    <t>27,59 (1,03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2395 (38) </t>
+  </si>
+  <si>
+    <t>29,07 (0,89)</t>
+  </si>
+  <si>
+    <t>27,98 (0,99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,7841 (38) </t>
+  </si>
+  <si>
+    <t>29,38 (0,88)</t>
+  </si>
+  <si>
+    <t>27,32 (0,84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5657 (38) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3866 (38) </t>
+  </si>
+  <si>
+    <t>28,20 (0,82)</t>
+  </si>
+  <si>
+    <t>30,00 (0,87)</t>
+  </si>
+  <si>
+    <t>30,09 (0,78)</t>
+  </si>
+  <si>
+    <t>29,32 (0,75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,6555 (38) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,28 +371,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,35 +425,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -266,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -284,59 +456,58 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -357,7 +528,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -432,7 +603,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C0FB-4916-A00B-A9DDC7067BC4}"/>
             </c:ext>
@@ -567,14 +738,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1148,7 +1319,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
@@ -1173,7 +1344,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54DAA9E4-4B79-4615-8FA0-9D53D340EF9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DAA9E4-4B79-4615-8FA0-9D53D340EF9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,6 +1482,657 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Agrupar 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F70818-CEEC-49D3-9845-63C64F5267BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13719175" y="1276350"/>
+          <a:ext cx="6178550" cy="2784475"/>
+          <a:chOff x="2904526" y="1933575"/>
+          <a:chExt cx="6162675" cy="2990850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Imagem 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFBD33-C518-447A-B9B5-19CA3ED411ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2904526" y="1933575"/>
+            <a:ext cx="6162675" cy="2990850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Retângulo 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C28D6A-993C-4601-9552-14DC506CE9BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4425817" y="2305729"/>
+            <a:ext cx="961053" cy="849086"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Retângulo 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5D540F-4106-4420-AB48-BF2CAC430317}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6298163" y="3788228"/>
+            <a:ext cx="2643673" cy="475862"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Retângulo 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F876B703-E51B-4266-AE82-746237366EDC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4425818" y="3375303"/>
+            <a:ext cx="961053" cy="340567"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Retângulo 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635B73A3-21E5-47F5-88D3-B38BA2E659EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4940557" y="4376055"/>
+            <a:ext cx="1870790" cy="475862"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1324,7 +2146,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBC2A2E8-F86D-4605-A48B-33748336BACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2A2E8-F86D-4605-A48B-33748336BACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,11 +2465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,25 +2488,25 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1735,7 +2557,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -1755,10 +2577,13 @@
       <c r="G5" s="11">
         <v>28.8459</v>
       </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12">
@@ -1777,78 +2602,78 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="15" t="s">
+      <c r="I9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>1</v>
+      <c r="N10" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
         <v>2010</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="19">
-        <v>-1.2777160000000001</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>24</v>
+      <c r="J11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="21">
+        <v>-1.27</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N11" s="23">
         <v>0.24179999999999999</v>
@@ -1856,96 +2681,162 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="20">
         <v>2011</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="21">
+        <v>-0.89100000000000001</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="N12" s="23">
         <v>0.43240000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="16">
+      <c r="I13" s="20">
         <v>2012</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="J13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="21">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="23">
         <v>0.69920000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="16">
+      <c r="I14" s="20">
         <v>2013</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="J14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="21">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="N14" s="23">
         <v>0.9899</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="16">
+      <c r="I15" s="20">
         <v>2014</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="J15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="23">
         <v>0.55179999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="16">
+      <c r="I16" s="20">
         <v>2015</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="J16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="N16" s="23">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I17" s="16">
+      <c r="I17" s="20">
         <v>2016</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="J17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="21">
+        <v>-1.8320000000000001</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="N17" s="23">
         <v>0.15290000000000001</v>
       </c>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="16">
+      <c r="I18" s="25">
         <v>2017</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="23">
+      <c r="J18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="27">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="29">
         <v>0.99309999999999998</v>
       </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1958,11 +2849,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N16"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8">
+        <v>27.084050000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.83320839999999996</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3.6318709999999998</v>
+      </c>
+      <c r="F3" s="7">
+        <v>25.333549999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>28.83456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11">
+        <v>28.36177</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.6903745</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.1636929999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>26.921669999999999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>29.801870000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11">
+        <v>27.754850000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.53940410000000005</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.4114909999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <v>26.663810000000002</v>
+      </c>
+      <c r="G5" s="11">
+        <v>28.8459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12">
+        <v>-1.2777160000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>107447</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10">
+        <v>-3.4528669999999999</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.89743479999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>38</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1.1702239999999999</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0.32650000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2011</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1.165</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.34560000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="20">
+        <v>2012</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="21">
+        <v>2.2109000000000001</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="20">
+        <v>2013</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="21">
+        <v>2.08</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="20">
+        <v>2014</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="21">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="23">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="20">
+        <v>2015</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2.746</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="23">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="20">
+        <v>2016</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="21">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="23">
+        <v>0.1384</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="27">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,33 +3242,32 @@
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2026,7 +3290,7 @@
         <v>28.83456</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2049,9 +3313,9 @@
         <v>29.801870000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -2072,9 +3336,9 @@
         <v>28.8459</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="12">
@@ -2091,504 +3355,240 @@
         <v>0.89743479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="17" t="s">
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="I11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0.3987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16">
-        <v>2010</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="24">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="I12" s="20">
         <v>2011</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="24">
-        <v>0.34560000000000002</v>
-      </c>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="16">
+      <c r="J12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.79359999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="20">
         <v>2012</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="25">
-        <v>0.10630000000000001</v>
-      </c>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="16">
+      <c r="J13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1.5914999999999999</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.22270000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="20">
         <v>2013</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="24">
-        <v>0.1583</v>
-      </c>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="27">
+      <c r="J14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="21">
+        <v>1.093</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.43780000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="20">
         <v>2014</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="26">
+      <c r="J15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="21">
+        <v>2.7951000000000001</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="23">
         <v>5.33E-2</v>
       </c>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="27">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="20">
         <v>2015</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="26">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="16">
+      <c r="J16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="23">
+        <v>0.12570000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="20">
         <v>2016</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="24">
-        <v>0.1384</v>
-      </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="16">
+      <c r="J17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1.8011999999999999</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="23">
+        <v>0.17369999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="25">
         <v>2017</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="24">
-        <v>0.1545</v>
-      </c>
-      <c r="O18" s="21"/>
+      <c r="J18" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="27">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.5161</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:O9"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M21:M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8">
-        <v>27.084050000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.83320839999999996</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3.6318709999999998</v>
-      </c>
-      <c r="F3" s="7">
-        <v>25.333549999999999</v>
-      </c>
-      <c r="G3" s="8">
-        <v>28.83456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
-        <v>28.36177</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.6903745</v>
-      </c>
-      <c r="E4" s="9">
-        <v>3.1636929999999999</v>
-      </c>
-      <c r="F4" s="9">
-        <v>26.921669999999999</v>
-      </c>
-      <c r="G4" s="11">
-        <v>29.801870000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>40</v>
-      </c>
-      <c r="C5" s="11">
-        <v>27.754850000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.53940410000000005</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3.4114909999999998</v>
-      </c>
-      <c r="F5" s="9">
-        <v>26.663810000000002</v>
-      </c>
-      <c r="G5" s="11">
-        <v>28.8459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12">
-        <v>-1.2777160000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>107447</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10">
-        <v>-3.4528669999999999</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.89743479999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5">
-        <v>38</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="16">
-        <v>2010</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="24">
-        <v>0.3987</v>
-      </c>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="16">
-        <v>2011</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="24">
-        <v>0.79359999999999997</v>
-      </c>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="16">
-        <v>2012</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="24">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="16">
-        <v>2013</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="24">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15" s="16">
-        <v>2014</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="26">
-        <v>5.33E-2</v>
-      </c>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="16">
-        <v>2015</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="24">
-        <v>0.12570000000000001</v>
-      </c>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="16">
-        <v>2016</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="24">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="16">
-        <v>2017</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="24">
-        <v>0.5161</v>
-      </c>
-      <c r="O18" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2596,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/scripts Stata/Atual/Diff Media/resultados.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B2AE4-1FDA-4219-9EC6-7CD156A208D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BD0B6-8AC1-4AA5-8238-4C55AD9CC746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="29355" windowHeight="11490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>t(df)</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t xml:space="preserve">0,6555 (38) </t>
+  </si>
+  <si>
+    <t>29,16 (0,92)</t>
+  </si>
+  <si>
+    <t>27,97 (0,89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8556 (38) </t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +390,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -438,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -456,15 +472,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,6 +516,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2621,32 +2640,32 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2660,22 +2679,22 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>-1.27</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <v>0.24179999999999999</v>
       </c>
     </row>
@@ -2689,154 +2708,154 @@
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="18">
         <v>-0.89100000000000001</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <v>0.43240000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>-0.49299999999999999</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <v>0.69920000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <v>0.9899</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="18">
         <v>0.81</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <v>0.55179999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <v>0.51500000000000001</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="20">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="18">
         <v>-1.8320000000000001</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="20">
         <v>0.15290000000000001</v>
       </c>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="24">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="26">
         <v>0.99309999999999998</v>
       </c>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3003,32 +3022,32 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3042,22 +3061,22 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>1.1702239999999999</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <v>0.32650000000000001</v>
       </c>
     </row>
@@ -3071,147 +3090,147 @@
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="18">
         <v>1.165</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <v>0.34560000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>2.2109000000000001</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <v>0.10630000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>2.08</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <v>0.1583</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="18">
         <v>2.7949999999999999</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <v>5.33E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <v>2.746</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="20">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="18">
         <v>2.0670000000000002</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="20">
         <v>0.1384</v>
       </c>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="24">
         <v>1.7609999999999999</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="26">
         <v>0.1545</v>
       </c>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="23"/>
+      <c r="N19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3226,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:N9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,32 +3395,32 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3415,22 +3434,22 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>0.95430000000000004</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <v>0.3987</v>
       </c>
     </row>
@@ -3444,147 +3463,147 @@
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="18">
         <v>0.30769999999999997</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <v>0.79359999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>1.5914999999999999</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <v>0.22270000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>1.093</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <v>0.43780000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="20">
+      <c r="I15" s="31">
         <v>2014</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="21">
-        <v>2.7951000000000001</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="23">
-        <v>5.33E-2</v>
+      <c r="J15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="31">
+        <v>1.181</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <v>2.0590000000000002</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="20">
         <v>0.12570000000000001</v>
       </c>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="18">
         <v>1.8011999999999999</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="20">
         <v>0.17369999999999999</v>
       </c>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="24">
         <v>0.76859999999999995</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="26">
         <v>0.5161</v>
       </c>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="30"/>
+      <c r="K19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
